--- a/biology/Zoologie/Grallaire_de_Ridgely/Grallaire_de_Ridgely.xlsx
+++ b/biology/Zoologie/Grallaire_de_Ridgely/Grallaire_de_Ridgely.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria ridgelyi
 La Grallaire de Ridgely (Grallaria ridgelyi) est une espèce de passereaux originaire de l'Équateur et du Pérou.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce n'a été observée que dans un petit nombre de lieux seulement, dans le sud-est de l'Équateur et dans la partie adjacente au Pérou.
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit uniquement dans les forêts humides composées de bambous Chusquea et d'arbres Cecropia entre 2 250 et 2 680 m d'altitude. La plus haute altitude où l'espèce a été trouvée coïncide avec la limite d'altitude des espèces du genre Cecropia[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit uniquement dans les forêts humides composées de bambous Chusquea et d'arbres Cecropia entre 2 250 et 2 680 m d'altitude. La plus haute altitude où l'espèce a été trouvée coïncide avec la limite d'altitude des espèces du genre Cecropia
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Niels Krabbe, D. J. Agro, N. H. Rice, M. Jacome, L. Navarrete et F. Sornoza M., « A new species of antpitta (Formicariidae: Grallaria) from the southern Ecuadorian Andes », The Auk, Washington, AOS, vol. 116, no 4,‎ octobre 1999, p. 882-890 (ISSN 0004-8038 et 1938-4254, OCLC 636759596 et 1518634, BNF 37574357, lire en ligne)</t>
         </is>
